--- a/AmazoneAppiumDemoProject/TestData/ValidUserDetails.xlsx
+++ b/AmazoneAppiumDemoProject/TestData/ValidUserDetails.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A215776\Workspace\Mobile\AppiumDemoProject\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13020" windowHeight="3030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13185" windowHeight="3000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>UserName</t>
   </si>
@@ -33,9 +29,6 @@
   </si>
   <si>
     <t>shashikumar.cd@gmail.com</t>
-  </si>
-  <si>
-    <t>Shashi@87</t>
   </si>
 </sst>
 </file>
@@ -377,9 +370,6 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
